--- a/state_output_nostop_minus1.xlsx
+++ b/state_output_nostop_minus1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL9"/>
+  <dimension ref="A1:BL10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,44 +445,44 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>tot_keep</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>tot_bsb_catch</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_bsb</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_bsb</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_scup</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_scup</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>keep_length_27</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>tot_bsb_catch</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_bsb</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_bsb</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_scup</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_scup</t>
-        </is>
-      </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>release_length_16</t>
@@ -580,17 +580,17 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>keep_length_29</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>keep_length_28</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>keep_length_30</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_29</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
@@ -684,115 +684,115 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>105536.8637290106</v>
+        <v>120189.7532588425</v>
       </c>
       <c r="C2">
-        <v>18101.85830474691</v>
+        <v>10846.00296264526</v>
       </c>
       <c r="D2">
-        <v>18313.66400074875</v>
+        <v>10529.85384047139</v>
       </c>
       <c r="E2">
-        <v>35789.83145076804</v>
+        <v>21384.27847737576</v>
       </c>
       <c r="F2">
-        <v>66323.31816779776</v>
+        <v>49581.82573513503</v>
       </c>
       <c r="G2">
-        <v>35910.0037100687</v>
+        <v>35862.59845184723</v>
       </c>
       <c r="H2">
-        <v>54546.62896470781</v>
+        <v>40762.98290663379</v>
       </c>
       <c r="I2">
-        <v>43578.79729330547</v>
+        <v>52652.1541094694</v>
       </c>
       <c r="J2">
-        <v>21538.81232580505</v>
+        <v>57012.50131736325</v>
       </c>
       <c r="K2">
-        <v>10615.52556965755</v>
+        <v>13082.44834535326</v>
       </c>
       <c r="L2">
-        <v>4336.986908409229</v>
+        <v>7419.322975126364</v>
       </c>
       <c r="M2">
-        <v>11742.456238511</v>
+        <v>13855.89783119968</v>
       </c>
       <c r="N2">
-        <v>719.2493869739861</v>
+        <v>4888.360499008771</v>
       </c>
       <c r="O2">
-        <v>1484.508376522446</v>
+        <v>3835.167711338838</v>
       </c>
       <c r="P2">
-        <v>2782.776524450442</v>
+        <v>2739.704768775814</v>
       </c>
       <c r="Q2">
-        <v>466.4122889247646</v>
+        <v>538.593141240209</v>
       </c>
       <c r="R2">
-        <v>34.30484788097203</v>
+        <v>156071.6590230173</v>
       </c>
       <c r="S2">
-        <v>97299.8297604409</v>
+        <v>170077.1047297284</v>
       </c>
       <c r="T2">
-        <v>229868.7878183987</v>
+        <v>34397.1642196375</v>
       </c>
       <c r="U2">
-        <v>30170.54936808544</v>
+        <v>61660.8339082071</v>
       </c>
       <c r="V2">
-        <v>52594.4026805457</v>
+        <v>111303.8263589141</v>
       </c>
       <c r="W2">
-        <v>96245.71511181294</v>
+        <v>36512.2569798813</v>
       </c>
       <c r="X2">
-        <v>32113.51615698422</v>
+        <v>70759.29754216515</v>
       </c>
       <c r="Y2">
-        <v>63168.41484560684</v>
+        <v>47.50832414168965</v>
       </c>
       <c r="Z2">
-        <v>398.1340653832625</v>
+        <v>362.1681153746877</v>
       </c>
       <c r="AA2">
-        <v>198.0400313923599</v>
+        <v>409.291552167887</v>
       </c>
       <c r="AB2">
-        <v>93.32269814110646</v>
+        <v>87.43945243431125</v>
       </c>
       <c r="AC2">
-        <v>39.15719716694464</v>
+        <v>53.35739635705904</v>
       </c>
       <c r="AD2">
-        <v>106.2576518450997</v>
+        <v>107.8050857676626</v>
       </c>
       <c r="AE2">
-        <v>5.676592527972656</v>
+        <v>37.93664696455224</v>
       </c>
       <c r="AF2">
-        <v>15.12569501292173</v>
+        <v>27.77428183221057</v>
       </c>
       <c r="AG2">
-        <v>23.7835557747183</v>
+        <v>19.94896163292582</v>
       </c>
       <c r="AH2">
-        <v>3.545055389820078</v>
+        <v>3.506214356129461</v>
       </c>
       <c r="AI2">
-        <v>0.4406769264967031</v>
+        <v>0.3346487325216508</v>
       </c>
       <c r="AJ2">
-        <v>-1245972.501928659</v>
+        <v>-2590890.34396104</v>
       </c>
       <c r="AK2">
-        <v>105536.8637290106</v>
+        <v>120189.7532588425</v>
       </c>
       <c r="AL2">
-        <v>491416</v>
+        <v>488102</v>
       </c>
       <c r="AM2">
         <v>11</v>
@@ -882,25 +882,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>471261.3648457202</v>
+        <v>458280.3810158051</v>
       </c>
       <c r="C3">
-        <v>9969.192128704239</v>
+        <v>7145.037690613858</v>
       </c>
       <c r="D3">
-        <v>34692.72877026525</v>
+        <v>24320.20603831371</v>
       </c>
       <c r="E3">
-        <v>102342.5595583615</v>
+        <v>72292.24335793378</v>
       </c>
       <c r="F3">
-        <v>136681.4923357766</v>
+        <v>109266.36727566</v>
       </c>
       <c r="G3">
-        <v>147220.3470947733</v>
+        <v>118154.4864798912</v>
       </c>
       <c r="H3">
-        <v>228986.4608845914</v>
+        <v>210211.434475303</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -909,55 +909,55 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>71225.28433286698</v>
+        <v>80498.3701065909</v>
       </c>
       <c r="L3">
-        <v>35805.56161989877</v>
+        <v>40729.27282999158</v>
       </c>
       <c r="M3">
-        <v>64387.13953954391</v>
+        <v>71911.15528654659</v>
       </c>
       <c r="N3">
-        <v>53167.9721347546</v>
+        <v>58266.80198758878</v>
       </c>
       <c r="O3">
-        <v>17206.1617130601</v>
+        <v>16462.34940497628</v>
       </c>
       <c r="P3">
-        <v>12947.56469002283</v>
+        <v>11677.95358387708</v>
       </c>
       <c r="Q3">
-        <v>16432.71188934867</v>
+        <v>14804.0110556753</v>
       </c>
       <c r="R3">
-        <v>10711.25219539982</v>
+        <v>312510.3124553575</v>
       </c>
       <c r="S3">
-        <v>286704.8022740355</v>
+        <v>1069057.89433966</v>
       </c>
       <c r="T3">
-        <v>1163269.686650006</v>
+        <v>137994.4406330302</v>
       </c>
       <c r="U3">
-        <v>138162.2520972928</v>
+        <v>201310.8498616652</v>
       </c>
       <c r="V3">
-        <v>208908.9835103393</v>
+        <v>455135.0280028011</v>
       </c>
       <c r="W3">
-        <v>459186.615962319</v>
+        <v>343892.7825367117</v>
       </c>
       <c r="X3">
-        <v>355012.6425995</v>
+        <v>48026.06834282401</v>
       </c>
       <c r="Y3">
-        <v>47296.25888341026</v>
+        <v>8941.229259490596</v>
       </c>
       <c r="Z3">
-        <v>238908.5096444963</v>
+        <v>245950.7935226333</v>
       </c>
       <c r="AA3">
-        <v>249318.1761476329</v>
+        <v>271164.8291491307</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-2266185.352774023</v>
+        <v>-2561070.84038461</v>
       </c>
       <c r="AK3">
-        <v>471261.3648457202</v>
+        <v>458280.3810158051</v>
       </c>
       <c r="AL3">
-        <v>1877463</v>
+        <v>1928369</v>
       </c>
       <c r="AM3">
         <v>12</v>
@@ -999,25 +999,25 @@
         <v>12</v>
       </c>
       <c r="AO3">
-        <v>3575.137812734454</v>
+        <v>2721.207395814342</v>
       </c>
       <c r="AP3">
-        <v>11575.08227266994</v>
+        <v>7831.288954365617</v>
       </c>
       <c r="AQ3">
-        <v>1894.302763503672</v>
+        <v>2269.619577318658</v>
       </c>
       <c r="AR3">
-        <v>2424.033338186454</v>
+        <v>3165.581292999657</v>
       </c>
       <c r="AS3">
-        <v>487.8922680691672</v>
+        <v>3275.781345050503</v>
       </c>
       <c r="AT3">
-        <v>14.65665484879453</v>
+        <v>502.7743917696498</v>
       </c>
       <c r="AU3">
-        <v>0.2691345317006265</v>
+        <v>5.412333481884557</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -1080,25 +1080,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>439633.8651709695</v>
+        <v>475981.3341764486</v>
       </c>
       <c r="C4">
-        <v>28369.68963616524</v>
+        <v>21333.59639410959</v>
       </c>
       <c r="D4">
-        <v>20848.66763603731</v>
+        <v>14754.74800327083</v>
       </c>
       <c r="E4">
-        <v>66349.46431363749</v>
+        <v>55202.93727847156</v>
       </c>
       <c r="F4">
-        <v>169415.8037620916</v>
+        <v>153631.4831717131</v>
       </c>
       <c r="G4">
-        <v>174966.7394462329</v>
+        <v>162988.0314567023</v>
       </c>
       <c r="H4">
-        <v>172723.355672686</v>
+        <v>178765.7819231788</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1107,88 +1107,88 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>95030.07164987709</v>
+        <v>114517.9370662034</v>
       </c>
       <c r="L4">
-        <v>56125.81816371362</v>
+        <v>68865.34781688148</v>
       </c>
       <c r="M4">
-        <v>21404.78334266061</v>
+        <v>26905.06716066958</v>
       </c>
       <c r="N4">
-        <v>15970.04835928381</v>
+        <v>20835.67674458231</v>
       </c>
       <c r="O4">
-        <v>10133.16003135258</v>
+        <v>10572.46351741243</v>
       </c>
       <c r="P4">
-        <v>5355.843892427886</v>
+        <v>6073.713334272079</v>
       </c>
       <c r="Q4">
-        <v>3520.337784474194</v>
+        <v>3562.021302709954</v>
       </c>
       <c r="R4">
-        <v>392.2274894065254</v>
+        <v>252959.8917181978</v>
       </c>
       <c r="S4">
-        <v>209364.1668999674</v>
+        <v>1181917.216540889</v>
       </c>
       <c r="T4">
-        <v>1151404.37232384</v>
+        <v>151004.0081858859</v>
       </c>
       <c r="U4">
-        <v>137306.5943661964</v>
+        <v>184924.8365071196</v>
       </c>
       <c r="V4">
-        <v>172892.0157309498</v>
+        <v>513114.3026150014</v>
       </c>
       <c r="W4">
-        <v>475413.0026293679</v>
+        <v>401251.0080444611</v>
       </c>
       <c r="X4">
-        <v>383464.1659098563</v>
+        <v>16271.68250027333</v>
       </c>
       <c r="Y4">
-        <v>13527.02056457752</v>
+        <v>369.5919322564035</v>
       </c>
       <c r="Z4">
-        <v>240484.4222164109</v>
+        <v>273305.4014952182</v>
       </c>
       <c r="AA4">
-        <v>255207.7372572906</v>
+        <v>303428.0099925749</v>
       </c>
       <c r="AB4">
-        <v>359.1431065954421</v>
+        <v>451.8388973157021</v>
       </c>
       <c r="AC4">
-        <v>221.0838553532212</v>
+        <v>270.4296518039364</v>
       </c>
       <c r="AD4">
-        <v>83.33819177546141</v>
+        <v>104.0329264613317</v>
       </c>
       <c r="AE4">
-        <v>69.63960505758821</v>
+        <v>83.44825243725752</v>
       </c>
       <c r="AF4">
-        <v>41.00892503474297</v>
+        <v>43.48182915346078</v>
       </c>
       <c r="AG4">
-        <v>20.88641602256787</v>
+        <v>23.69968351783324</v>
       </c>
       <c r="AH4">
-        <v>15.01506931235732</v>
+        <v>13.41710637840023</v>
       </c>
       <c r="AI4">
-        <v>1.590100572744562</v>
+        <v>1.756810820367695</v>
       </c>
       <c r="AJ4">
-        <v>-3863731.358076531</v>
+        <v>-5162181.989324807</v>
       </c>
       <c r="AK4">
-        <v>439633.8651709695</v>
+        <v>475981.3341764486</v>
       </c>
       <c r="AL4">
-        <v>1875099</v>
+        <v>1871472</v>
       </c>
       <c r="AM4">
         <v>12</v>
@@ -1197,37 +1197,37 @@
         <v>12</v>
       </c>
       <c r="AO4">
-        <v>9812.441126260786</v>
+        <v>7548.897264057782</v>
       </c>
       <c r="AP4">
-        <v>12408.47991108288</v>
+        <v>9960.657595198079</v>
       </c>
       <c r="AQ4">
-        <v>782.7113367250747</v>
+        <v>536.4393134436971</v>
       </c>
       <c r="AR4">
-        <v>133.2942532735568</v>
+        <v>67.88269302393992</v>
       </c>
       <c r="AS4">
-        <v>463.0335309991281</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>52.83706577326488</v>
+        <v>631.5277579461948</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>22.22307879631334</v>
       </c>
       <c r="AV4">
-        <v>2.764453525711665</v>
+        <v>3.249514292941958</v>
       </c>
       <c r="AW4">
-        <v>2.219978347265578</v>
+        <v>1.70562350827477</v>
       </c>
       <c r="AX4">
-        <v>0.8668199741702179</v>
+        <v>0.3256510064530631</v>
       </c>
       <c r="AY4">
-        <v>0.01482437273965682</v>
+        <v>0.2860196978058736</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -1278,25 +1278,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3669794.561072938</v>
+        <v>3339832.143592553</v>
       </c>
       <c r="C5">
-        <v>201281.8579503974</v>
+        <v>119741.0756221588</v>
       </c>
       <c r="D5">
-        <v>664465.3663995665</v>
+        <v>436835.5051054044</v>
       </c>
       <c r="E5">
-        <v>1088687.377628465</v>
+        <v>750373.8981053489</v>
       </c>
       <c r="F5">
-        <v>1371723.995354125</v>
+        <v>1179065.984850402</v>
       </c>
       <c r="G5">
-        <v>1683418.324434121</v>
+        <v>1465940.054926012</v>
       </c>
       <c r="H5">
-        <v>1784941.638301531</v>
+        <v>1694247.201690965</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1305,88 +1305,88 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>292637.2577030969</v>
+        <v>341520.0784041509</v>
       </c>
       <c r="L5">
-        <v>192208.447940599</v>
+        <v>211926.7451177187</v>
       </c>
       <c r="M5">
-        <v>89384.06305862762</v>
+        <v>102995.6215864348</v>
       </c>
       <c r="N5">
-        <v>94678.48843929738</v>
+        <v>103411.1654651131</v>
       </c>
       <c r="O5">
-        <v>66956.97766557317</v>
+        <v>75043.21096711338</v>
       </c>
       <c r="P5">
-        <v>51872.22599981787</v>
+        <v>49847.18358489893</v>
       </c>
       <c r="Q5">
-        <v>27366.03356418797</v>
+        <v>26948.58114223378</v>
       </c>
       <c r="R5">
-        <v>10420.84800340653</v>
+        <v>973255.1206203584</v>
       </c>
       <c r="S5">
-        <v>885222.3373942806</v>
+        <v>8397747.975741606</v>
       </c>
       <c r="T5">
-        <v>9373933.659671543</v>
+        <v>1048403.46273094</v>
       </c>
       <c r="U5">
-        <v>1182690.472262429</v>
+        <v>546080.4915108578</v>
       </c>
       <c r="V5">
-        <v>613300.3303094877</v>
+        <v>4281144.058159094</v>
       </c>
       <c r="W5">
-        <v>4699473.557579977</v>
+        <v>982640.5366518776</v>
       </c>
       <c r="X5">
-        <v>1137666.552839367</v>
+        <v>1859949.337963011</v>
       </c>
       <c r="Y5">
-        <v>2116198.463538511</v>
+        <v>8643.931777006514</v>
       </c>
       <c r="Z5">
-        <v>1401308.012130369</v>
+        <v>1546789.075675116</v>
       </c>
       <c r="AA5">
-        <v>948419.8601960933</v>
+        <v>1019373.539158389</v>
       </c>
       <c r="AB5">
-        <v>30612.32497125145</v>
+        <v>37582.1417664222</v>
       </c>
       <c r="AC5">
-        <v>20139.538780547</v>
+        <v>23156.67772784637</v>
       </c>
       <c r="AD5">
-        <v>9082.705850501805</v>
+        <v>11595.62986768097</v>
       </c>
       <c r="AE5">
-        <v>9897.713800367348</v>
+        <v>10357.4768911237</v>
       </c>
       <c r="AF5">
-        <v>7742.926507945275</v>
+        <v>8126.230425036876</v>
       </c>
       <c r="AG5">
-        <v>6327.487107784647</v>
+        <v>5263.12653637999</v>
       </c>
       <c r="AH5">
-        <v>2673.865829766879</v>
+        <v>2677.99365825276</v>
       </c>
       <c r="AI5">
-        <v>962.5818196699454</v>
+        <v>688.6095654443739</v>
       </c>
       <c r="AJ5">
-        <v>-9858197.097347356</v>
+        <v>-16480026.65341427</v>
       </c>
       <c r="AK5">
-        <v>3669794.561072938</v>
+        <v>3339832.143592553</v>
       </c>
       <c r="AL5">
-        <v>16996991</v>
+        <v>16583020</v>
       </c>
       <c r="AM5">
         <v>15</v>
@@ -1395,52 +1395,52 @@
         <v>15</v>
       </c>
       <c r="AO5">
-        <v>45641.47531028412</v>
+        <v>22200.43697870358</v>
       </c>
       <c r="AP5">
-        <v>48466.30102140112</v>
+        <v>36170.41052667924</v>
       </c>
       <c r="AQ5">
-        <v>26260.88305207467</v>
+        <v>26043.33005484147</v>
       </c>
       <c r="AR5">
-        <v>21380.00588684176</v>
+        <v>16376.45114350155</v>
       </c>
       <c r="AS5">
-        <v>5310.735270135119</v>
+        <v>1385.701628088533</v>
       </c>
       <c r="AT5">
-        <v>3459.274782770848</v>
+        <v>4005.030336606085</v>
       </c>
       <c r="AU5">
-        <v>1310.582564870728</v>
+        <v>3368.405445140714</v>
       </c>
       <c r="AV5">
-        <v>2935.234625292168</v>
+        <v>2503.769284798847</v>
       </c>
       <c r="AW5">
-        <v>726.8492411598102</v>
+        <v>376.9914882802139</v>
       </c>
       <c r="AX5">
-        <v>2389.095295885289</v>
+        <v>2228.064244445402</v>
       </c>
       <c r="AY5">
-        <v>360.8369008204606</v>
+        <v>355.4016422407137</v>
       </c>
       <c r="AZ5">
-        <v>35168.06488398143</v>
+        <v>18342.38271040802</v>
       </c>
       <c r="BA5">
-        <v>6371.626348565978</v>
+        <v>3616.684745498304</v>
       </c>
       <c r="BB5">
-        <v>99.36758428978328</v>
+        <v>52.61973298239239</v>
       </c>
       <c r="BC5">
-        <v>89.23139736011386</v>
+        <v>86.99281558619035</v>
       </c>
       <c r="BD5">
-        <v>1976.513462981078</v>
+        <v>1739.683967509971</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -1476,115 +1476,115 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4423113.715904567</v>
+        <v>4874615.015423009</v>
       </c>
       <c r="C6">
-        <v>474935.5796534272</v>
+        <v>353752.3829721937</v>
       </c>
       <c r="D6">
-        <v>955546.983728923</v>
+        <v>796117.7695059612</v>
       </c>
       <c r="E6">
-        <v>1851676.01136423</v>
+        <v>1539360.716103588</v>
       </c>
       <c r="F6">
-        <v>1628455.138719044</v>
+        <v>1775417.364437039</v>
       </c>
       <c r="G6">
-        <v>2257835.444696321</v>
+        <v>2312886.939364393</v>
       </c>
       <c r="H6">
-        <v>2371148.424797857</v>
+        <v>2512262.955134017</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>793484.9886047572</v>
+        <v>1058182.45719625</v>
       </c>
       <c r="K6">
-        <v>306126.6173468666</v>
+        <v>472203.99969536</v>
       </c>
       <c r="L6">
-        <v>193172.4978014185</v>
+        <v>281969.8411243603</v>
       </c>
       <c r="M6">
-        <v>118062.4766487087</v>
+        <v>178949.0305179734</v>
       </c>
       <c r="N6">
-        <v>67447.22035240971</v>
+        <v>92997.34940752244</v>
       </c>
       <c r="O6">
-        <v>47613.00468701581</v>
+        <v>59111.41445676436</v>
       </c>
       <c r="P6">
-        <v>16955.43174137291</v>
+        <v>17749.08344099446</v>
       </c>
       <c r="Q6">
-        <v>31850.01408382277</v>
+        <v>36576.15655485958</v>
       </c>
       <c r="R6">
-        <v>202.4344980421164</v>
+        <v>2238404.371830796</v>
       </c>
       <c r="S6">
-        <v>1610336.274258346</v>
+        <v>12179967.58588447</v>
       </c>
       <c r="T6">
-        <v>11936310.1912338</v>
+        <v>505036.0434341953</v>
       </c>
       <c r="U6">
-        <v>412366.4532793959</v>
+        <v>127776.4162377788</v>
       </c>
       <c r="V6">
-        <v>113913.4598408762</v>
+        <v>1927480.1640877</v>
       </c>
       <c r="W6">
-        <v>1711828.947845526</v>
+        <v>2418.067576164322</v>
       </c>
       <c r="X6">
-        <v>2290.686031787447</v>
+        <v>24752.80295275322</v>
       </c>
       <c r="Y6">
-        <v>13127.74398021617</v>
+        <v>108.6156210678414</v>
       </c>
       <c r="Z6">
-        <v>2231424.683336642</v>
+        <v>2745487.635429113</v>
       </c>
       <c r="AA6">
-        <v>16262.60042308537</v>
+        <v>20882.63682119761</v>
       </c>
       <c r="AB6">
-        <v>6456.442189483676</v>
+        <v>9633.832716439083</v>
       </c>
       <c r="AC6">
-        <v>3970.52120162616</v>
+        <v>5519.431761763064</v>
       </c>
       <c r="AD6">
-        <v>2454.002946999206</v>
+        <v>3386.576293342323</v>
       </c>
       <c r="AE6">
-        <v>1395.377950922221</v>
+        <v>2059.544442486686</v>
       </c>
       <c r="AF6">
-        <v>1106.806844828205</v>
+        <v>1204.710483738007</v>
       </c>
       <c r="AG6">
-        <v>321.1653346715245</v>
+        <v>392.8975737978774</v>
       </c>
       <c r="AH6">
-        <v>600.1228821360828</v>
+        <v>679.6344266331425</v>
       </c>
       <c r="AI6">
-        <v>2.732782019014719</v>
+        <v>6.499695961685334</v>
       </c>
       <c r="AJ6">
-        <v>-32733128.58914527</v>
+        <v>-65995031.28304611</v>
       </c>
       <c r="AK6">
-        <v>4423113.715904567</v>
+        <v>4874615.015423009</v>
       </c>
       <c r="AL6">
-        <v>19074708</v>
+        <v>19347633</v>
       </c>
       <c r="AM6">
         <v>15</v>
@@ -1593,58 +1593,58 @@
         <v>15</v>
       </c>
       <c r="AO6">
-        <v>24219.8229477334</v>
+        <v>15565.53682381315</v>
       </c>
       <c r="AP6">
-        <v>77260.97943309791</v>
+        <v>65643.4504133841</v>
       </c>
       <c r="AQ6">
-        <v>24809.18249039591</v>
+        <v>29168.50921195442</v>
       </c>
       <c r="AR6">
-        <v>5962.648124061168</v>
+        <v>4835.341586451658</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1663.664614801388</v>
       </c>
       <c r="AT6">
-        <v>1657.486117214753</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1415.856417000404</v>
+        <v>1883.001136080806</v>
       </c>
       <c r="AV6">
-        <v>574.3468144051458</v>
+        <v>589.5077381136518</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>113.7006314423756</v>
+        <v>143.3105708598347</v>
       </c>
       <c r="AY6">
-        <v>38.8881317437865</v>
+        <v>21.74969800952154</v>
       </c>
       <c r="AZ6">
-        <v>13914.55251211983</v>
+        <v>5899.534792763674</v>
       </c>
       <c r="BA6">
-        <v>16514.98336573572</v>
+        <v>12989.05611394969</v>
       </c>
       <c r="BB6">
-        <v>32.74895736829936</v>
+        <v>9.467816958790264</v>
       </c>
       <c r="BC6">
-        <v>48.12958794211613</v>
+        <v>54.44475494883651</v>
       </c>
       <c r="BD6">
-        <v>1576.41534525949</v>
+        <v>3005.907266355254</v>
       </c>
       <c r="BE6">
-        <v>30598.32811781439</v>
+        <v>39303.0532237577</v>
       </c>
       <c r="BF6">
-        <v>83496.82777145338</v>
+        <v>106973.5017904162</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -1674,70 +1674,70 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>412255.5853739852</v>
+        <v>411431.7820953952</v>
       </c>
       <c r="C7">
-        <v>23124.93461466025</v>
+        <v>18794.14762481685</v>
       </c>
       <c r="D7">
-        <v>41777.93403848956</v>
+        <v>38245.58176029467</v>
       </c>
       <c r="E7">
-        <v>88529.05034371679</v>
+        <v>73587.12137438922</v>
       </c>
       <c r="F7">
-        <v>150692.5316181546</v>
+        <v>141139.2281026053</v>
       </c>
       <c r="G7">
-        <v>225453.0745144763</v>
+        <v>215704.7952668877</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>37649.37877545037</v>
+        <v>46983.73435910718</v>
       </c>
       <c r="J7">
-        <v>17941.63030529581</v>
+        <v>23331.07426093375</v>
       </c>
       <c r="K7">
-        <v>12544.69714987976</v>
+        <v>19079.46059178695</v>
       </c>
       <c r="L7">
-        <v>7807.245949902737</v>
+        <v>10363.60898096364</v>
       </c>
       <c r="M7">
-        <v>2533.578410132488</v>
+        <v>3565.865245188182</v>
       </c>
       <c r="N7">
-        <v>1051.773383250356</v>
+        <v>1350.754044426905</v>
       </c>
       <c r="O7">
-        <v>2411.683279470236</v>
+        <v>2689.490357216975</v>
       </c>
       <c r="P7">
-        <v>23.66741169132786</v>
+        <v>13.96023934498504</v>
       </c>
       <c r="Q7">
-        <v>187.5004628655026</v>
+        <v>270.3718090178762</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>196804.3747801842</v>
       </c>
       <c r="S7">
-        <v>164234.0762338469</v>
+        <v>509763.6062374662</v>
       </c>
       <c r="T7">
-        <v>555804.1134719481</v>
+        <v>56781.9953863354</v>
       </c>
       <c r="U7">
-        <v>52134.27968824772</v>
+        <v>14386.94743663281</v>
       </c>
       <c r="V7">
-        <v>13232.75523594726</v>
+        <v>241527.6185074315</v>
       </c>
       <c r="W7">
-        <v>219601.8084265585</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>-4373892.274980345</v>
+        <v>-6746315.629643288</v>
       </c>
       <c r="AK7">
-        <v>412255.5853739852</v>
+        <v>411431.7820953952</v>
       </c>
       <c r="AL7">
-        <v>1285556</v>
+        <v>1283438</v>
       </c>
       <c r="AM7">
         <v>16</v>
@@ -1791,16 +1791,16 @@
         <v>16</v>
       </c>
       <c r="AO7">
-        <v>7390.120781635515</v>
+        <v>6646.332195067124</v>
       </c>
       <c r="AP7">
-        <v>11303.80162913435</v>
+        <v>9615.942286810527</v>
       </c>
       <c r="AQ7">
-        <v>72.51651115687136</v>
+        <v>159.1987759658677</v>
       </c>
       <c r="AR7">
-        <v>781.8586844662444</v>
+        <v>651.845266707625</v>
       </c>
       <c r="AS7">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>7532.665931680736</v>
+        <v>6030.457626594823</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -1839,13 +1839,13 @@
         <v>0</v>
       </c>
       <c r="BE7">
-        <v>3271.252381583643</v>
+        <v>3059.15749814372</v>
       </c>
       <c r="BF7">
-        <v>25676.83638859946</v>
+        <v>27104.13323352177</v>
       </c>
       <c r="BG7">
-        <v>81228.54591028516</v>
+        <v>88345.01084952432</v>
       </c>
       <c r="BH7">
         <v>0</v>
@@ -1872,70 +1872,70 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>562120.4621821493</v>
+        <v>580777.2648704693</v>
       </c>
       <c r="C8">
-        <v>115943.5783332599</v>
+        <v>109530.4885731172</v>
       </c>
       <c r="D8">
-        <v>204633.0164765302</v>
+        <v>194436.3204151671</v>
       </c>
       <c r="E8">
-        <v>125325.7692227344</v>
+        <v>125093.0928160194</v>
       </c>
       <c r="F8">
-        <v>67952.11411792236</v>
+        <v>73488.36281507892</v>
       </c>
       <c r="G8">
-        <v>56147.00782128571</v>
+        <v>63376.99143618192</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17800.38253394865</v>
+        <v>27066.74328660117</v>
       </c>
       <c r="J8">
-        <v>18265.51237067274</v>
+        <v>27942.77747394879</v>
       </c>
       <c r="K8">
-        <v>9587.661754345721</v>
+        <v>14721.64227503167</v>
       </c>
       <c r="L8">
-        <v>10032.98258507072</v>
+        <v>16879.54740077032</v>
       </c>
       <c r="M8">
-        <v>5359.217269127335</v>
+        <v>8389.404267947246</v>
       </c>
       <c r="N8">
-        <v>1236.746107990866</v>
+        <v>1493.469949527026</v>
       </c>
       <c r="O8">
-        <v>793.9566927349604</v>
+        <v>1222.124771106312</v>
       </c>
       <c r="P8">
-        <v>84.20665373196862</v>
+        <v>177.6655636837792</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>145411.4190501211</v>
       </c>
       <c r="S8">
-        <v>96572.20049857174</v>
+        <v>750530.6222185927</v>
       </c>
       <c r="T8">
-        <v>758580.4159417724</v>
+        <v>75974.01272097527</v>
       </c>
       <c r="U8">
-        <v>67749.44852721451</v>
+        <v>12080.44746711748</v>
       </c>
       <c r="V8">
-        <v>11914.75473022823</v>
+        <v>327402.2313643771</v>
       </c>
       <c r="W8">
-        <v>305761.6632589285</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>-797000.7669774931</v>
+        <v>-4083268.816588177</v>
       </c>
       <c r="AK8">
-        <v>562120.4621821493</v>
+        <v>580777.2648704693</v>
       </c>
       <c r="AL8">
-        <v>1721824</v>
+        <v>1742173</v>
       </c>
       <c r="AM8">
         <v>15</v>
@@ -1989,16 +1989,16 @@
         <v>15</v>
       </c>
       <c r="AO8">
-        <v>51388.00278712666</v>
+        <v>50696.08218777722</v>
       </c>
       <c r="AP8">
-        <v>65112.19313494641</v>
+        <v>63644.60607877363</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.3715681754446372</v>
       </c>
       <c r="AR8">
-        <v>293.4576203940871</v>
+        <v>355.8736085168366</v>
       </c>
       <c r="AS8">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="AZ8">
-        <v>45532.89620306948</v>
+        <v>43665.34401927936</v>
       </c>
       <c r="BA8">
-        <v>26545.83784489736</v>
+        <v>26599.33387719799</v>
       </c>
       <c r="BB8">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>0</v>
       </c>
       <c r="BF8">
-        <v>40052.62897922698</v>
+        <v>42673.55428774944</v>
       </c>
       <c r="BG8">
-        <v>33118.0769105547</v>
+        <v>47161.79888481251</v>
       </c>
       <c r="BH8">
         <v>0</v>
@@ -2070,70 +2070,70 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>809216.2755246649</v>
+        <v>785423.8676143833</v>
       </c>
       <c r="C9">
-        <v>165103.4823742748</v>
+        <v>146378.6660675196</v>
       </c>
       <c r="D9">
-        <v>286777.3329049916</v>
+        <v>252754.2900711421</v>
       </c>
       <c r="E9">
-        <v>181066.9547406014</v>
+        <v>167601.4658355695</v>
       </c>
       <c r="F9">
-        <v>97138.93172255631</v>
+        <v>102278.6028581653</v>
       </c>
       <c r="G9">
-        <v>77907.86509491209</v>
+        <v>84692.95581949355</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26785.66571269979</v>
+        <v>36993.97195848976</v>
       </c>
       <c r="J9">
-        <v>38665.46368771544</v>
+        <v>56068.63522488258</v>
       </c>
       <c r="K9">
-        <v>21416.61264214449</v>
+        <v>30919.40294686806</v>
       </c>
       <c r="L9">
-        <v>21262.7721497542</v>
+        <v>30539.07535016967</v>
       </c>
       <c r="M9">
-        <v>10967.27866285354</v>
+        <v>16758.373175479</v>
       </c>
       <c r="N9">
-        <v>2402.853486951433</v>
+        <v>3458.897028487493</v>
       </c>
       <c r="O9">
-        <v>1602.750350467022</v>
+        <v>2133.724876527183</v>
       </c>
       <c r="P9">
-        <v>208.1277010633982</v>
+        <v>390.3115708413449</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>244001.0806043298</v>
       </c>
       <c r="S9">
-        <v>177885.3697250944</v>
+        <v>1000289.378004588</v>
       </c>
       <c r="T9">
-        <v>1073265.454010518</v>
+        <v>96918.55955816559</v>
       </c>
       <c r="U9">
-        <v>115859.296831784</v>
+        <v>30686.4313315598</v>
       </c>
       <c r="V9">
-        <v>32786.09138383526</v>
+        <v>423099.7316917441</v>
       </c>
       <c r="W9">
-        <v>448846.0682034299</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>-253355.1021179683</v>
+        <v>-3653275.01874773</v>
       </c>
       <c r="AK9">
-        <v>809216.2755246649</v>
+        <v>785423.8676143833</v>
       </c>
       <c r="AL9">
-        <v>2134432</v>
+        <v>2129071</v>
       </c>
       <c r="AM9">
         <v>16</v>
@@ -2187,16 +2187,16 @@
         <v>16</v>
       </c>
       <c r="AO9">
-        <v>69943.97800100109</v>
+        <v>66585.02029156312</v>
       </c>
       <c r="AP9">
-        <v>92809.33476802264</v>
+        <v>85772.42958731024</v>
       </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>583.2849168935354</v>
+        <v>875.8257927005703</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>63848.5552511944</v>
+        <v>58471.43135521637</v>
       </c>
       <c r="BA9">
-        <v>38669.01915296327</v>
+        <v>35754.51611860778</v>
       </c>
       <c r="BB9">
         <v>0</v>
@@ -2235,19 +2235,19 @@
         <v>0</v>
       </c>
       <c r="BE9">
-        <v>7189.970545577005</v>
+        <v>6718.488921473915</v>
       </c>
       <c r="BF9">
-        <v>48726.22582104894</v>
+        <v>50919.47788783997</v>
       </c>
       <c r="BG9">
-        <v>53990.56041455158</v>
+        <v>65862.86267988414</v>
       </c>
       <c r="BH9">
         <v>0</v>
       </c>
       <c r="BI9">
-        <v>111695.4095719938</v>
+        <v>108971.8663905763</v>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
@@ -2258,6 +2258,204 @@
         <v>1</v>
       </c>
       <c r="BL9" t="inlineStr">
+        <is>
+          <t>minus1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>25478.05685865205</v>
+      </c>
+      <c r="C10">
+        <v>321.4757529464397</v>
+      </c>
+      <c r="D10">
+        <v>531.5009380303974</v>
+      </c>
+      <c r="E10">
+        <v>348.1243748232897</v>
+      </c>
+      <c r="F10">
+        <v>212.6788111003874</v>
+      </c>
+      <c r="G10">
+        <v>191.9967204309699</v>
+      </c>
+      <c r="H10">
+        <v>7.403951253743145</v>
+      </c>
+      <c r="I10">
+        <v>9905.16244815722</v>
+      </c>
+      <c r="J10">
+        <v>10625.18445378585</v>
+      </c>
+      <c r="K10">
+        <v>5738.646919868745</v>
+      </c>
+      <c r="L10">
+        <v>5827.228586586842</v>
+      </c>
+      <c r="M10">
+        <v>3120.632422476495</v>
+      </c>
+      <c r="N10">
+        <v>628.1996718897303</v>
+      </c>
+      <c r="O10">
+        <v>453.3226550425449</v>
+      </c>
+      <c r="P10">
+        <v>65.57328478261634</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>36590.67696470134</v>
+      </c>
+      <c r="S10">
+        <v>5788.447715911262</v>
+      </c>
+      <c r="T10">
+        <v>2765.648526465751</v>
+      </c>
+      <c r="U10">
+        <v>1152.272323359502</v>
+      </c>
+      <c r="V10">
+        <v>13919.39547664898</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>969.1713279813591</v>
+      </c>
+      <c r="AA10">
+        <v>1062.030064291673</v>
+      </c>
+      <c r="AB10">
+        <v>565.9124647808819</v>
+      </c>
+      <c r="AC10">
+        <v>562.2411352652548</v>
+      </c>
+      <c r="AD10">
+        <v>292.6003461804798</v>
+      </c>
+      <c r="AE10">
+        <v>69.53702766749363</v>
+      </c>
+      <c r="AF10">
+        <v>43.96243098452369</v>
+      </c>
+      <c r="AG10">
+        <v>7.147629032483813</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>-178860.7377196786</v>
+      </c>
+      <c r="AK10">
+        <v>25478.05685865205</v>
+      </c>
+      <c r="AL10">
+        <v>77635</v>
+      </c>
+      <c r="AM10">
+        <v>11</v>
+      </c>
+      <c r="AN10">
+        <v>11</v>
+      </c>
+      <c r="AO10">
+        <v>149.0394024731247</v>
+      </c>
+      <c r="AP10">
+        <v>161.5094310345464</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>142.4422787763423</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>13.15513758123126</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>121.3765320689181</v>
+      </c>
+      <c r="BA10">
+        <v>157.5842379840649</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>313.7434460796222</v>
+      </c>
+      <c r="BF10">
+        <v>1448.166829489728</v>
+      </c>
+      <c r="BG10">
+        <v>84.28424333494215</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>3665.115014463479</v>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="BK10">
+        <v>1</v>
+      </c>
+      <c r="BL10" t="inlineStr">
         <is>
           <t>minus1</t>
         </is>
